--- a/xodimlar_royxati.xlsx
+++ b/xodimlar_royxati.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">ID raqami </t>
   </si>
@@ -38,22 +38,40 @@
     <t>1</t>
   </si>
   <si>
-    <t>Ali valiyev</t>
+    <t>Ali Aliyev</t>
   </si>
   <si>
-    <t>dwalkj</t>
+    <t>Xodimlar bolimi</t>
   </si>
   <si>
-    <t>ojawd</t>
+    <t>MP</t>
   </si>
   <si>
-    <t>dwa;j</t>
+    <t>Toshkent Shahri Olmazor tumani</t>
   </si>
   <si>
-    <t>124552</t>
+    <t>6216</t>
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Vali Valiyev</t>
+  </si>
+  <si>
+    <t>jsjs</t>
+  </si>
+  <si>
+    <t>sjjs0</t>
+  </si>
+  <si>
+    <t>Toshkent sh Mirobod tumani</t>
+  </si>
+  <si>
+    <t>321</t>
   </si>
 </sst>
 </file>
@@ -98,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,6 +168,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
